--- a/rmnd_lca/data/additional_inventories/lci-synfuels-from-methanol.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-synfuels-from-methanol.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E88F4CC-47CC-47AD-8E82-39D4C19578D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9298BCFA-26D7-4294-BFA1-FE6048E95447}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="91">
   <si>
     <t>Activity</t>
   </si>
@@ -298,11 +297,20 @@
   <si>
     <t>Methanol-based fuels</t>
   </si>
+  <si>
+    <t>market for tap water</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>tap water</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -678,22 +686,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4674D2C-5661-4846-9F02-29F681DCA85F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="A869" sqref="A869"/>
+    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
+      <selection activeCell="G835" sqref="G835"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -701,12 +709,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -722,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -730,7 +738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -738,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -746,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -754,7 +762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -762,12 +770,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -793,7 +801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -817,7 +825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -837,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -860,7 +868,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -883,7 +891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -906,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -926,7 +934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,7 +942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -942,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -950,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -958,7 +966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -966,7 +974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -974,7 +982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -982,7 +990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -990,12 +998,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1217,12 +1225,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -1436,12 +1444,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -1610,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>65</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>66</v>
       </c>
@@ -1682,12 +1690,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -1743,12 +1751,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1864,7 +1872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -1923,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +1939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -1963,7 +1971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -1971,12 +1979,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -2045,7 +2053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>21</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2150,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>49</v>
       </c>
@@ -2158,7 +2166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -2166,7 +2174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>29</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2198,12 +2206,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -2252,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -2275,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>81</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -2361,7 +2369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -2409,7 +2417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>11</v>
       </c>
@@ -2417,12 +2425,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>21</v>
       </c>
@@ -2472,7 +2480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>78</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>58</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -2591,7 +2599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>62</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>65</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>66</v>
       </c>
@@ -2663,12 +2671,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>49</v>
       </c>
@@ -2724,12 +2732,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>84</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>57</v>
       </c>
@@ -2868,7 +2876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>81</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -2952,12 +2960,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>81</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -3131,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3147,7 +3155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3155,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>29</v>
       </c>
@@ -3171,7 +3179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -3179,12 +3187,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>53</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>81</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>56</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3374,7 +3382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>29</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -3398,12 +3406,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -3429,7 +3437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>78</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>57</v>
       </c>
@@ -3524,7 +3532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>60</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>62</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>65</v>
       </c>
@@ -3620,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>66</v>
       </c>
@@ -3644,12 +3652,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3681,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>11</v>
       </c>
@@ -3697,7 +3705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>49</v>
       </c>
@@ -3705,12 +3713,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +3744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -3780,7 +3788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>84</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>57</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>81</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>0</v>
       </c>
@@ -3877,7 +3885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -3917,7 +3925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>49</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>29</v>
       </c>
@@ -3933,12 +3941,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>9</v>
       </c>
@@ -3964,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -3987,7 +3995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>27</v>
       </c>
@@ -4053,7 +4061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>81</v>
       </c>
@@ -4073,7 +4081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>57</v>
       </c>
@@ -4096,7 +4104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>0</v>
       </c>
@@ -4104,7 +4112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -4112,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>49</v>
       </c>
@@ -4120,7 +4128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>2</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>4</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -4152,7 +4160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>11</v>
       </c>
@@ -4160,12 +4168,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>9</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -4237,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>53</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>81</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +4308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>21</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>0</v>
       </c>
@@ -4331,7 +4339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -4339,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>2</v>
       </c>
@@ -4347,7 +4355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -4363,7 +4371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>29</v>
       </c>
@@ -4371,7 +4379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>11</v>
       </c>
@@ -4379,12 +4387,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -4434,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>78</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>57</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>58</v>
       </c>
@@ -4529,7 +4537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>60</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>62</v>
       </c>
@@ -4577,7 +4585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>65</v>
       </c>
@@ -4601,7 +4609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>66</v>
       </c>
@@ -4625,12 +4633,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>0</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>2</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>11</v>
       </c>
@@ -4678,7 +4686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>49</v>
       </c>
@@ -4686,12 +4694,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -4741,7 +4749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>84</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>57</v>
       </c>
@@ -4830,7 +4838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>81</v>
       </c>
@@ -4850,7 +4858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>0</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>2</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -4882,7 +4890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -4890,7 +4898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>49</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>29</v>
       </c>
@@ -4914,12 +4922,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -4988,7 +4996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -5011,7 +5019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>27</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>57</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>81</v>
       </c>
@@ -5077,7 +5085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>49</v>
       </c>
@@ -5101,7 +5109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>2</v>
       </c>
@@ -5109,7 +5117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -5125,7 +5133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>29</v>
       </c>
@@ -5133,7 +5141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>11</v>
       </c>
@@ -5141,12 +5149,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>9</v>
       </c>
@@ -5172,7 +5180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>51</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -5218,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>53</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>81</v>
       </c>
@@ -5261,7 +5269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>56</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>2</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -5336,7 +5344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -5344,7 +5352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>29</v>
       </c>
@@ -5352,7 +5360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -5360,12 +5368,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>21</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>51</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>57</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>58</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>60</v>
       </c>
@@ -5534,7 +5542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>62</v>
       </c>
@@ -5558,7 +5566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
         <v>65</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
         <v>66</v>
       </c>
@@ -5606,12 +5614,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>0</v>
       </c>
@@ -5619,7 +5627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>2</v>
       </c>
@@ -5635,7 +5643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>49</v>
       </c>
@@ -5667,12 +5675,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -5742,7 +5750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -5765,7 +5773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>84</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>23</v>
       </c>
@@ -5811,7 +5819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>81</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>0</v>
       </c>
@@ -5839,7 +5847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -5863,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>6</v>
       </c>
@@ -5871,7 +5879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -5879,7 +5887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>49</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>29</v>
       </c>
@@ -5895,12 +5903,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>9</v>
       </c>
@@ -5926,7 +5934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -5949,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>21</v>
       </c>
@@ -5992,7 +6000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>27</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>23</v>
       </c>
@@ -6038,7 +6046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>81</v>
       </c>
@@ -6058,7 +6066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>0</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>49</v>
       </c>
@@ -6082,7 +6090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>2</v>
       </c>
@@ -6090,7 +6098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>29</v>
       </c>
@@ -6114,7 +6122,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>11</v>
       </c>
@@ -6122,12 +6130,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>9</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>51</v>
       </c>
@@ -6176,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>13</v>
       </c>
@@ -6199,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>53</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>81</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>56</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>21</v>
       </c>
@@ -6285,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>0</v>
       </c>
@@ -6293,7 +6301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1</v>
       </c>
@@ -6301,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>2</v>
       </c>
@@ -6309,7 +6317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>4</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>6</v>
       </c>
@@ -6325,7 +6333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>29</v>
       </c>
@@ -6333,7 +6341,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>11</v>
       </c>
@@ -6341,12 +6349,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -6372,7 +6380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>21</v>
       </c>
@@ -6396,7 +6404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>51</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>78</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>23</v>
       </c>
@@ -6467,7 +6475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>58</v>
       </c>
@@ -6491,7 +6499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>60</v>
       </c>
@@ -6515,7 +6523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>62</v>
       </c>
@@ -6539,7 +6547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>65</v>
       </c>
@@ -6563,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>66</v>
       </c>
@@ -6587,12 +6595,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>0</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1</v>
       </c>
@@ -6608,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>2</v>
       </c>
@@ -6616,7 +6624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>4</v>
       </c>
@@ -6624,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>6</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>11</v>
       </c>
@@ -6640,7 +6648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>49</v>
       </c>
@@ -6648,12 +6656,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -6679,7 +6687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -6703,7 +6711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>17</v>
       </c>
@@ -6723,7 +6731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>21</v>
       </c>
@@ -6746,7 +6754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>84</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>23</v>
       </c>
@@ -6792,7 +6800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>81</v>
       </c>
@@ -6812,7 +6820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="2" t="s">
         <v>0</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1</v>
       </c>
@@ -6828,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>2</v>
       </c>
@@ -6836,7 +6844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>4</v>
       </c>
@@ -6844,7 +6852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -6852,7 +6860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>11</v>
       </c>
@@ -6860,7 +6868,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>49</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>29</v>
       </c>
@@ -6876,12 +6884,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>9</v>
       </c>
@@ -6907,7 +6915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -6930,7 +6938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>17</v>
       </c>
@@ -6950,7 +6958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>21</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
         <v>27</v>
       </c>
@@ -6996,7 +7004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>23</v>
       </c>
@@ -7019,7 +7027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>81</v>
       </c>
@@ -7039,7 +7047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>0</v>
       </c>
@@ -7047,7 +7055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>49</v>
       </c>
@@ -7063,7 +7071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>2</v>
       </c>
@@ -7071,7 +7079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>4</v>
       </c>
@@ -7079,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>6</v>
       </c>
@@ -7087,7 +7095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>29</v>
       </c>
@@ -7095,7 +7103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -7103,12 +7111,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>9</v>
       </c>
@@ -7134,7 +7142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>51</v>
       </c>
@@ -7157,7 +7165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>13</v>
       </c>
@@ -7180,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>53</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>81</v>
       </c>
@@ -7223,7 +7231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>56</v>
       </c>
@@ -7243,7 +7251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>21</v>
       </c>
@@ -7266,7 +7274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>0</v>
       </c>
@@ -7274,7 +7282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1</v>
       </c>
@@ -7282,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>2</v>
       </c>
@@ -7290,7 +7298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -7298,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -7306,7 +7314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>29</v>
       </c>
@@ -7314,7 +7322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>11</v>
       </c>
@@ -7322,12 +7330,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>9</v>
       </c>
@@ -7353,7 +7361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>21</v>
       </c>
@@ -7377,7 +7385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>51</v>
       </c>
@@ -7400,7 +7408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>78</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>23</v>
       </c>
@@ -7448,7 +7456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>58</v>
       </c>
@@ -7472,7 +7480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>60</v>
       </c>
@@ -7496,7 +7504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>62</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
         <v>65</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
         <v>66</v>
       </c>
@@ -7568,12 +7576,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>0</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>2</v>
       </c>
@@ -7597,7 +7605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -7605,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>6</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +7629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>49</v>
       </c>
@@ -7629,12 +7637,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>17</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>21</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>84</v>
       </c>
@@ -7750,7 +7758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>57</v>
       </c>
@@ -7773,7 +7781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>81</v>
       </c>
@@ -7793,7 +7801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>0</v>
       </c>
@@ -7801,7 +7809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>2</v>
       </c>
@@ -7817,7 +7825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>4</v>
       </c>
@@ -7825,7 +7833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>6</v>
       </c>
@@ -7833,7 +7841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>11</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>49</v>
       </c>
@@ -7849,7 +7857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>29</v>
       </c>
@@ -7857,12 +7865,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>9</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -7911,7 +7919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>17</v>
       </c>
@@ -7931,7 +7939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>21</v>
       </c>
@@ -7954,7 +7962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="3" t="s">
         <v>27</v>
       </c>
@@ -7977,7 +7985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>57</v>
       </c>
@@ -8000,7 +8008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>81</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>0</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>49</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>2</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>6</v>
       </c>
@@ -8068,7 +8076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>29</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>11</v>
       </c>
@@ -8084,12 +8092,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>9</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>51</v>
       </c>
@@ -8138,7 +8146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>13</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>53</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>81</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>56</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>21</v>
       </c>
@@ -8247,7 +8255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>0</v>
       </c>
@@ -8255,7 +8263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1</v>
       </c>
@@ -8263,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>2</v>
       </c>
@@ -8271,7 +8279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>4</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>6</v>
       </c>
@@ -8287,7 +8295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>29</v>
       </c>
@@ -8295,7 +8303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>11</v>
       </c>
@@ -8303,12 +8311,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -8334,7 +8342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>21</v>
       </c>
@@ -8358,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>51</v>
       </c>
@@ -8381,7 +8389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>78</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>57</v>
       </c>
@@ -8429,7 +8437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>58</v>
       </c>
@@ -8453,7 +8461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>60</v>
       </c>
@@ -8477,7 +8485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>62</v>
       </c>
@@ -8501,7 +8509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
         <v>65</v>
       </c>
@@ -8525,7 +8533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
         <v>66</v>
       </c>
@@ -8549,12 +8557,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>0</v>
       </c>
@@ -8562,7 +8570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1</v>
       </c>
@@ -8570,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>2</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>4</v>
       </c>
@@ -8586,7 +8594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -8594,7 +8602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>11</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>49</v>
       </c>
@@ -8610,12 +8618,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>9</v>
       </c>
@@ -8641,7 +8649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>13</v>
       </c>
@@ -8665,7 +8673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>17</v>
       </c>
@@ -8685,7 +8693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>84</v>
       </c>
@@ -8731,7 +8739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>57</v>
       </c>
@@ -8754,7 +8762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>81</v>
       </c>
@@ -8774,7 +8782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>0</v>
       </c>
@@ -8782,7 +8790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1</v>
       </c>
@@ -8790,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>2</v>
       </c>
@@ -8798,7 +8806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>4</v>
       </c>
@@ -8806,7 +8814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>6</v>
       </c>
@@ -8814,7 +8822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>11</v>
       </c>
@@ -8822,7 +8830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>49</v>
       </c>
@@ -8830,7 +8838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>29</v>
       </c>
@@ -8838,12 +8846,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>9</v>
       </c>
@@ -8869,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -8892,7 +8900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>17</v>
       </c>
@@ -8912,7 +8920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>21</v>
       </c>
@@ -8935,7 +8943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
         <v>27</v>
       </c>
@@ -8958,7 +8966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>57</v>
       </c>
@@ -8981,7 +8989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>81</v>
       </c>
@@ -9001,7 +9009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="2" t="s">
         <v>0</v>
       </c>
@@ -9009,7 +9017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1</v>
       </c>
@@ -9017,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>49</v>
       </c>
@@ -9025,7 +9033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>2</v>
       </c>
@@ -9033,7 +9041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>4</v>
       </c>
@@ -9041,7 +9049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>6</v>
       </c>
@@ -9049,7 +9057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>29</v>
       </c>
@@ -9057,7 +9065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>11</v>
       </c>
@@ -9065,12 +9073,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="2" t="s">
         <v>9</v>
       </c>
@@ -9096,7 +9104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>51</v>
       </c>
@@ -9119,7 +9127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>13</v>
       </c>
@@ -9142,7 +9150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>53</v>
       </c>
@@ -9165,7 +9173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>81</v>
       </c>
@@ -9185,7 +9193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>56</v>
       </c>
@@ -9205,7 +9213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>21</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>0</v>
       </c>
@@ -9236,7 +9244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1</v>
       </c>
@@ -9244,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>2</v>
       </c>
@@ -9252,7 +9260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>4</v>
       </c>
@@ -9260,7 +9268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>6</v>
       </c>
@@ -9268,7 +9276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>29</v>
       </c>
@@ -9276,7 +9284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>11</v>
       </c>
@@ -9284,12 +9292,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -9315,7 +9323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>21</v>
       </c>
@@ -9339,7 +9347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>51</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>78</v>
       </c>
@@ -9386,7 +9394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>57</v>
       </c>
@@ -9410,7 +9418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>58</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>60</v>
       </c>
@@ -9458,7 +9466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>62</v>
       </c>
@@ -9482,7 +9490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
         <v>65</v>
       </c>
@@ -9506,7 +9514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
         <v>66</v>
       </c>
@@ -9530,12 +9538,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A633" s="4"/>
       <c r="B633" s="5"/>
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>0</v>
       </c>
@@ -9543,7 +9551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1</v>
       </c>
@@ -9551,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>2</v>
       </c>
@@ -9559,7 +9567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>4</v>
       </c>
@@ -9567,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>6</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>11</v>
       </c>
@@ -9583,7 +9591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>49</v>
       </c>
@@ -9591,12 +9599,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -9622,7 +9630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -9646,7 +9654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>17</v>
       </c>
@@ -9666,7 +9674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>21</v>
       </c>
@@ -9689,7 +9697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>84</v>
       </c>
@@ -9712,7 +9720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>57</v>
       </c>
@@ -9735,7 +9743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>81</v>
       </c>
@@ -9755,7 +9763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="2" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1</v>
       </c>
@@ -9771,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>2</v>
       </c>
@@ -9779,7 +9787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>4</v>
       </c>
@@ -9787,7 +9795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -9795,7 +9803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>11</v>
       </c>
@@ -9803,7 +9811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>49</v>
       </c>
@@ -9811,7 +9819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>29</v>
       </c>
@@ -9819,12 +9827,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="2" t="s">
         <v>9</v>
       </c>
@@ -9850,7 +9858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>13</v>
       </c>
@@ -9873,7 +9881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>17</v>
       </c>
@@ -9893,7 +9901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>21</v>
       </c>
@@ -9916,7 +9924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
         <v>27</v>
       </c>
@@ -9939,7 +9947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>57</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>81</v>
       </c>
@@ -9982,7 +9990,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="2" t="s">
         <v>0</v>
       </c>
@@ -9990,7 +9998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1</v>
       </c>
@@ -9998,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>49</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>2</v>
       </c>
@@ -10014,7 +10022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -10022,7 +10030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>6</v>
       </c>
@@ -10030,7 +10038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>29</v>
       </c>
@@ -10038,7 +10046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>11</v>
       </c>
@@ -10046,12 +10054,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="2" t="s">
         <v>9</v>
       </c>
@@ -10077,7 +10085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>51</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>13</v>
       </c>
@@ -10123,7 +10131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>53</v>
       </c>
@@ -10146,7 +10154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>81</v>
       </c>
@@ -10166,7 +10174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>56</v>
       </c>
@@ -10186,7 +10194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>21</v>
       </c>
@@ -10209,7 +10217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>0</v>
       </c>
@@ -10217,7 +10225,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1</v>
       </c>
@@ -10225,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>2</v>
       </c>
@@ -10233,7 +10241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>4</v>
       </c>
@@ -10241,7 +10249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>6</v>
       </c>
@@ -10249,7 +10257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>29</v>
       </c>
@@ -10257,7 +10265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>11</v>
       </c>
@@ -10265,12 +10273,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>9</v>
       </c>
@@ -10296,7 +10304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>21</v>
       </c>
@@ -10320,7 +10328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>51</v>
       </c>
@@ -10343,7 +10351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>78</v>
       </c>
@@ -10367,7 +10375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>57</v>
       </c>
@@ -10391,7 +10399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>58</v>
       </c>
@@ -10415,7 +10423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>60</v>
       </c>
@@ -10439,7 +10447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>62</v>
       </c>
@@ -10463,7 +10471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A701" s="4" t="s">
         <v>65</v>
       </c>
@@ -10487,7 +10495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A702" s="4" t="s">
         <v>66</v>
       </c>
@@ -10511,12 +10519,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A703" s="4"/>
       <c r="B703" s="5"/>
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>0</v>
       </c>
@@ -10524,7 +10532,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1</v>
       </c>
@@ -10532,7 +10540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>2</v>
       </c>
@@ -10540,7 +10548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>4</v>
       </c>
@@ -10548,7 +10556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>6</v>
       </c>
@@ -10556,7 +10564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10572,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>49</v>
       </c>
@@ -10572,12 +10580,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>9</v>
       </c>
@@ -10603,7 +10611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>13</v>
       </c>
@@ -10627,7 +10635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>17</v>
       </c>
@@ -10647,7 +10655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>21</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>84</v>
       </c>
@@ -10693,7 +10701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>57</v>
       </c>
@@ -10716,7 +10724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>81</v>
       </c>
@@ -10736,7 +10744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="2" t="s">
         <v>0</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1</v>
       </c>
@@ -10752,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>2</v>
       </c>
@@ -10760,7 +10768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>4</v>
       </c>
@@ -10768,7 +10776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>6</v>
       </c>
@@ -10776,7 +10784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>11</v>
       </c>
@@ -10784,7 +10792,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>49</v>
       </c>
@@ -10792,7 +10800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>29</v>
       </c>
@@ -10800,12 +10808,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="2" t="s">
         <v>9</v>
       </c>
@@ -10831,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>13</v>
       </c>
@@ -10854,7 +10862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>17</v>
       </c>
@@ -10874,7 +10882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>21</v>
       </c>
@@ -10897,7 +10905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
         <v>27</v>
       </c>
@@ -10920,7 +10928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>57</v>
       </c>
@@ -10943,7 +10951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>81</v>
       </c>
@@ -10963,7 +10971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="2" t="s">
         <v>0</v>
       </c>
@@ -10971,7 +10979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>49</v>
       </c>
@@ -10987,7 +10995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>2</v>
       </c>
@@ -10995,7 +11003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>4</v>
       </c>
@@ -11003,7 +11011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>6</v>
       </c>
@@ -11011,7 +11019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>29</v>
       </c>
@@ -11019,7 +11027,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>11</v>
       </c>
@@ -11027,12 +11035,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="2" t="s">
         <v>9</v>
       </c>
@@ -11058,7 +11066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>51</v>
       </c>
@@ -11081,7 +11089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>13</v>
       </c>
@@ -11104,7 +11112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>53</v>
       </c>
@@ -11127,7 +11135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>81</v>
       </c>
@@ -11147,7 +11155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>56</v>
       </c>
@@ -11167,7 +11175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>21</v>
       </c>
@@ -11190,7 +11198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>0</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1</v>
       </c>
@@ -11206,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>2</v>
       </c>
@@ -11214,7 +11222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>4</v>
       </c>
@@ -11222,7 +11230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>6</v>
       </c>
@@ -11230,7 +11238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>29</v>
       </c>
@@ -11238,7 +11246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>11</v>
       </c>
@@ -11246,12 +11254,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>9</v>
       </c>
@@ -11277,7 +11285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>21</v>
       </c>
@@ -11301,7 +11309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>51</v>
       </c>
@@ -11324,7 +11332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>78</v>
       </c>
@@ -11348,7 +11356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>57</v>
       </c>
@@ -11372,7 +11380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>58</v>
       </c>
@@ -11396,7 +11404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>60</v>
       </c>
@@ -11420,7 +11428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>62</v>
       </c>
@@ -11444,7 +11452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A771" s="4" t="s">
         <v>65</v>
       </c>
@@ -11468,7 +11476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A772" s="4" t="s">
         <v>66</v>
       </c>
@@ -11492,7 +11500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>0</v>
       </c>
@@ -11500,7 +11508,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1</v>
       </c>
@@ -11508,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>2</v>
       </c>
@@ -11516,7 +11524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -11524,7 +11532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>6</v>
       </c>
@@ -11532,7 +11540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>11</v>
       </c>
@@ -11540,7 +11548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>49</v>
       </c>
@@ -11548,12 +11556,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>9</v>
       </c>
@@ -11579,7 +11587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>13</v>
       </c>
@@ -11603,7 +11611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>17</v>
       </c>
@@ -11623,7 +11631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>21</v>
       </c>
@@ -11646,7 +11654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>84</v>
       </c>
@@ -11669,7 +11677,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>57</v>
       </c>
@@ -11692,7 +11700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>81</v>
       </c>
@@ -11712,7 +11720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="2" t="s">
         <v>0</v>
       </c>
@@ -11720,7 +11728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1</v>
       </c>
@@ -11728,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>2</v>
       </c>
@@ -11736,7 +11744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -11744,7 +11752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>6</v>
       </c>
@@ -11752,7 +11760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>11</v>
       </c>
@@ -11760,7 +11768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>49</v>
       </c>
@@ -11768,7 +11776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>29</v>
       </c>
@@ -11776,12 +11784,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="2" t="s">
         <v>9</v>
       </c>
@@ -11807,7 +11815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>13</v>
       </c>
@@ -11830,7 +11838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>17</v>
       </c>
@@ -11850,7 +11858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>21</v>
       </c>
@@ -11873,7 +11881,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
         <v>27</v>
       </c>
@@ -11896,7 +11904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>57</v>
       </c>
@@ -11919,7 +11927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>81</v>
       </c>
@@ -11939,7 +11947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A807" s="2" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +11955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1</v>
       </c>
@@ -11955,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>49</v>
       </c>
@@ -11963,7 +11971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>2</v>
       </c>
@@ -11971,7 +11979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -11979,7 +11987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>6</v>
       </c>
@@ -11987,7 +11995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>29</v>
       </c>
@@ -11995,7 +12003,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>11</v>
       </c>
@@ -12003,12 +12011,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A815" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A816" s="2" t="s">
         <v>9</v>
       </c>
@@ -12034,7 +12042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>51</v>
       </c>
@@ -12057,7 +12065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>13</v>
       </c>
@@ -12080,7 +12088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>53</v>
       </c>
@@ -12103,7 +12111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>81</v>
       </c>
@@ -12123,7 +12131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>56</v>
       </c>
@@ -12143,7 +12151,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>21</v>
       </c>
@@ -12166,7 +12174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>0</v>
       </c>
@@ -12174,7 +12182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1</v>
       </c>
@@ -12182,7 +12190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>2</v>
       </c>
@@ -12190,7 +12198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -12198,7 +12206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>6</v>
       </c>
@@ -12206,7 +12214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>11</v>
       </c>
@@ -12214,12 +12222,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>9</v>
       </c>
@@ -12245,7 +12253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>21</v>
       </c>
@@ -12269,7 +12277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>51</v>
       </c>
@@ -12292,16 +12300,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B834" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C834" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D834" t="s">
         <v>14</v>
@@ -12310,13 +12318,13 @@
         <v>15</v>
       </c>
       <c r="G834" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H834" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>57</v>
       </c>
@@ -12340,7 +12348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>58</v>
       </c>
@@ -12364,7 +12372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>60</v>
       </c>
@@ -12388,7 +12396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>62</v>
       </c>
@@ -12412,7 +12420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A839" s="4" t="s">
         <v>65</v>
       </c>
@@ -12436,7 +12444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A840" s="4" t="s">
         <v>66</v>
       </c>
@@ -12460,11 +12468,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A841" s="4"/>
       <c r="G841" s="4"/>
     </row>
-    <row r="843" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>0</v>
       </c>
@@ -12472,7 +12480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1</v>
       </c>
@@ -12480,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>2</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>4</v>
       </c>
@@ -12496,7 +12504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>6</v>
       </c>
@@ -12504,7 +12512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>29</v>
       </c>
@@ -12512,7 +12520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>11</v>
       </c>
@@ -12520,12 +12528,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>9</v>
       </c>
@@ -12551,7 +12559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>33</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>37</v>
       </c>
@@ -12597,7 +12605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>39</v>
       </c>
@@ -12620,7 +12628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>41</v>
       </c>
@@ -12644,7 +12652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>44</v>
       </c>
@@ -12667,7 +12675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>46</v>
       </c>
@@ -12690,7 +12698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>47</v>
       </c>
@@ -12713,7 +12721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>21</v>
       </c>

--- a/rmnd_lca/data/additional_inventories/lci-synfuels-from-methanol.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-synfuels-from-methanol.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A817" workbookViewId="0">
-      <selection activeCell="G835" sqref="G835"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2721,7 +2721,7 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
